--- a/statistiche/RandomForestCounterfactuals/LH.xlsx
+++ b/statistiche/RandomForestCounterfactuals/LH.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF5E9"/>
+        <fgColor rgb="00E9ECEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ER Triage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Release A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -755,16 +755,16 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -922,16 +922,16 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1032,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>0</v>
@@ -1129,13 +1129,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>0</v>
@@ -1199,13 +1199,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -1312,16 +1312,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1379,19 +1379,19 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1403,13 +1403,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -1446,16 +1446,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>2</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2" t="n">
         <v>0</v>
@@ -1473,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -1516,16 +1516,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>3</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
@@ -1571,7 +1571,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1580,22 +1580,22 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
       </c>
       <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0</v>
@@ -1650,16 +1650,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>3</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="2" t="n">
         <v>0</v>
@@ -1677,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0</v>
@@ -1720,16 +1720,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>4</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2" t="n">
         <v>0</v>
@@ -1747,13 +1747,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
@@ -1790,16 +1790,16 @@
         <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>5</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2" t="n">
         <v>0</v>
@@ -1817,13 +1817,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0</v>
@@ -1860,16 +1860,16 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>5</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2" t="n">
         <v>0</v>
@@ -1887,13 +1887,13 @@
         <v>0</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0</v>
@@ -1930,16 +1930,16 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>5</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>0</v>
@@ -1957,13 +1957,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0</v>
@@ -2000,16 +2000,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>6</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2" t="n">
         <v>0</v>
@@ -2027,13 +2027,13 @@
         <v>0</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
@@ -2061,31 +2061,31 @@
         <v>17</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>6</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2" t="n">
         <v>0</v>
@@ -2097,13 +2097,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
